--- a/medicine/Enfance/Theresa_Breslin/Theresa_Breslin.xlsx
+++ b/medicine/Enfance/Theresa_Breslin/Theresa_Breslin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theresa Breslin, née en 1947 en Écosse, est une auteure de science-fiction d'origine écossaise. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle commence à écrire durant son adolescence et a publié environ 25 livres depuis la fin des années 1990. 
 Son roman Whispers in the Graveyard (en), sur un garçon dyslexique, remporte la Médaille Carnegie en 1994. 
-En 2020 et 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2020 et 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -546,16 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Le Maître des Rêves
-Le Maître des Rêves, Éditions Nathan, collection Planète Lune, 2004 ((en) The Dream Master, 1999)Réédité en 2005 chez Nathan, en Jeunesse Poche
+          <t>Série Le Maître des Rêves</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Maître des Rêves, Éditions Nathan, collection Planète Lune, 2004 ((en) The Dream Master, 1999)Réédité en 2005 chez Nathan, en Jeunesse Poche
 (en) Nightmare!, 2000
 Gladiateur, Éditions Nathan, collection Jeunesse Poche, 2006 ((en) Gladiator, 2003)
-(en) Arabian Nights, 2004
-Série Le Sceau des Médicis
-L'Apprenti de Léonard de Vinci, Éditions Milan, collection Poche Histoire, 2007 ((en) The Medici Seal, 2006)
-L'Espion des Borgia, Éditions Milan, collection Poche Histoire, 2007 ((en) )
-Divers
-La Prophétie de Nostradamus, Éditions Milan, 2009 ((en) The Nostradamus Prophecy, 2008)</t>
+(en) Arabian Nights, 2004</t>
         </is>
       </c>
     </row>
@@ -580,14 +594,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications (sélection française)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Le Sceau des Médicis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Apprenti de Léonard de Vinci, Éditions Milan, collection Poche Histoire, 2007 ((en) The Medici Seal, 2006)
+L'Espion des Borgia, Éditions Milan, collection Poche Histoire, 2007 ((en) )</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Theresa_Breslin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Theresa_Breslin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications (sélection française)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Prophétie de Nostradamus, Éditions Milan, 2009 ((en) The Nostradamus Prophecy, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Theresa_Breslin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Theresa_Breslin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1994 : Médaille Carnegie pour Whispers in the Graveyard (en)
-2011 : Finaliste Médaille Carnegie[2] pour Prisoner Of The Inquisition
-2020 et 2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren[1]
+2011 : Finaliste Médaille Carnegie pour Prisoner Of The Inquisition
+2020 et 2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren
 Officier de l'ordre de l'Empire britannique</t>
         </is>
       </c>
